--- a/DWServices/CTCCGoods/template/newsend_template.xlsx
+++ b/DWServices/CTCCGoods/template/newsend_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>地市</t>
   </si>
@@ -54,6 +54,12 @@
   <si>
     <t>RRU序列号</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G/5G</t>
+  </si>
+  <si>
+    <t>是否45G双模（全部填写）</t>
   </si>
 </sst>
 </file>
@@ -445,23 +451,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="5" width="10.125" customWidth="1"/>
-    <col min="6" max="6" width="12.125" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="10" max="11" width="9" style="3"/>
+    <col min="2" max="3" width="8.5" customWidth="1"/>
+    <col min="4" max="4" width="11.625" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="6" max="6" width="9.375" customWidth="1"/>
+    <col min="7" max="7" width="10.125" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="12" max="13" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,33 +476,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
